--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -501,7 +501,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Softdrinks</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20788.00</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,126 +413,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Result</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>Ailyn</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grapes</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+          <t>Ailyn Anos</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pineapple</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Softdrinks</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20788.00</t>
+          <t>23.00</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,43 +441,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ailyn</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>80</v>
+          <t>Melon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ailyn Anos</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>81</v>
+          <t>Grapes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23.00</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2700.00</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="History" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,29 +442,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grapes</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -475,12 +476,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Grapes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -492,13 +493,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2700.00</t>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3260.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-03 23:12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-03 23:14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-03 23:15:21</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,11 +416,11 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -534,10 +534,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -644,6 +644,99 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>2025-05-03 23:15:21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>User/Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Anos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ailyn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Anos</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3396" yWindow="1860" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="History" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RegisteredUsers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LoginHistory" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Inbox" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -414,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -442,81 +444,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Consturction Glass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Melon</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+          <t>Wrench</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Grapes</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3260.00</t>
+          <t>24400.00</t>
         </is>
       </c>
     </row>
@@ -531,10 +514,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -569,27 +552,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Hammer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-03 23:12:38</t>
+          <t>2025-05-07 23:28:13</t>
         </is>
       </c>
     </row>
@@ -601,49 +584,86 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Wrench</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-03 23:14:47</t>
+          <t>2025-05-07 23:28:38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Update</t>
+          <t>Deduct</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mango</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+          <t>Wrench</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-03 23:15:21</t>
+          <t>2025-05-07 23:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consturction Glass</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:44:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -658,10 +678,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -669,74 +689,848 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>User/Admin</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anos</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12344</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>User</t>
+          <t>2025-05-07 19:19:47</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ailyn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Anos</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Admin</t>
+          <t>2025-05-07 19:24:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:28:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:31:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:39:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:46:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:52:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:55:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-05-07 19:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:03:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:13:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:30:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:57:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-05-07 20:59:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-05-07 21:00:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:12:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:17:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:34:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:48:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:59:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:01:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:43:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:47:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:48:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-05-07 23:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-05-08 00:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-05-08 00:24:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sender</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Deduct performed on item 'Wrench' with quantity '1' and price '100'.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07 May 2025, 11:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Add performed on item 'Wrench' with quantity '80' and price '100'.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07 May 2025, 11:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deduct performed on item 'Wrench' with quantity '1' and price '100'.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>07 May 2025, 11:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Add performed on item 'Consturction Glass' with quantity '50' and price '30'.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07 May 2025, 11:44 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total performed on item '' with quantity '0.00' and price 'None'.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07 May 2025, 11:48 PM</t>
         </is>
       </c>
     </row>
